--- a/ServiceApp/src/main/java/Resources/TestData.xlsx
+++ b/ServiceApp/src/main/java/Resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9215" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t xml:space="preserve">LoginAccountPage </t>
   </si>
@@ -94,6 +94,9 @@
     <t>Client Page</t>
   </si>
   <si>
+    <t>addingClientDetails</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -115,6 +118,12 @@
     <t>amalu123@gmail.com</t>
   </si>
   <si>
+    <t>clientShowButtonVerification</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t>InventoryPage</t>
   </si>
   <si>
@@ -158,6 +167,18 @@
   </si>
   <si>
     <t>achu</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>×\nproduct_added</t>
+  </si>
+  <si>
+    <t>delectInventoryVerification</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -165,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -214,21 +235,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -253,13 +282,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -275,14 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -291,10 +325,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,13 +348,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -329,14 +358,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,187 +372,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,9 +568,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,6 +616,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -622,176 +663,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1147,7 +1171,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1155,7 +1179,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1163,7 +1187,7 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1187,7 +1211,7 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1199,15 +1223,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1">
@@ -1231,7 +1255,7 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1255,7 +1279,7 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1271,15 +1295,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="25.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="19.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1287,35 +1312,49 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1330,46 +1369,46 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="18.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="24.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1377,7 +1416,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1385,7 +1424,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1393,7 +1432,7 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1">
         <v>345</v>
@@ -1401,7 +1440,7 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>22</v>
@@ -1409,18 +1448,47 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceApp/src/main/java/Resources/TestData.xlsx
+++ b/ServiceApp/src/main/java/Resources/TestData.xlsx
@@ -4,24 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9215" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t xml:space="preserve">LoginAccountPage </t>
   </si>
   <si>
+    <t>loginAccountVerification</t>
+  </si>
+  <si>
     <t>loginDetails</t>
   </si>
   <si>
@@ -52,6 +56,33 @@
     <t>pass</t>
   </si>
   <si>
+    <t>loginWithWrongPassword</t>
+  </si>
+  <si>
+    <t>expectedMsg</t>
+  </si>
+  <si>
+    <t>Back to home page</t>
+  </si>
+  <si>
+    <t>forgotPasswordVerification</t>
+  </si>
+  <si>
+    <t>No record of that email address.</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>vyshnavyprakash1805@gmail.com</t>
+  </si>
+  <si>
+    <t>logoutVerification</t>
+  </si>
+  <si>
+    <t>Logged Out Successfully</t>
+  </si>
+  <si>
     <t>HomePage</t>
   </si>
   <si>
@@ -70,9 +101,6 @@
     <t>quickemailSentVerifiation</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>vyshanvyprakash1805@gmail.com</t>
   </si>
   <si>
@@ -85,16 +113,19 @@
     <t>Good Morning</t>
   </si>
   <si>
-    <t>expectedMsg</t>
-  </si>
-  <si>
     <t>This value is required</t>
   </si>
   <si>
+    <t>navigateToQualityAlertVerification</t>
+  </si>
+  <si>
+    <t>Ip013 Iphone 13 1.0000 2.0000</t>
+  </si>
+  <si>
     <t>Client Page</t>
   </si>
   <si>
-    <t>addingClientDetails</t>
+    <t>1.addingClientDetails</t>
   </si>
   <si>
     <t>Name</t>
@@ -103,6 +134,9 @@
     <t>Amalu</t>
   </si>
   <si>
+    <t>2.delectingClientDetails</t>
+  </si>
+  <si>
     <t>Company</t>
   </si>
   <si>
@@ -118,16 +152,28 @@
     <t>amalu123@gmail.com</t>
   </si>
   <si>
-    <t>clientShowButtonVerification</t>
+    <t>Client: Amalu</t>
+  </si>
+  <si>
+    <t>3.clientShowButtonVerification</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
+    <t>expectedNum</t>
+  </si>
+  <si>
+    <t>4.navigateToNextPageOnClickingNextOptionVerification</t>
+  </si>
+  <si>
+    <t>actualMsg</t>
+  </si>
+  <si>
     <t>InventoryPage</t>
   </si>
   <si>
-    <t>addInventoryProduct</t>
+    <t>1. addInventoryProduct</t>
   </si>
   <si>
     <t>productName</t>
@@ -175,10 +221,54 @@
     <t>×\nproduct_added</t>
   </si>
   <si>
-    <t>delectInventoryVerification</t>
+    <t>2. delectInventoryVerification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute </t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Attribute value</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>3. navigateToNextPage On Clicking
+ Next OptionVerification</t>
+  </si>
+  <si>
+    <t>showButtonNum</t>
+  </si>
+  <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.UserIsAbleToEditInventoryProductVerification
+</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>attributeValue</t>
+  </si>
+  <si>
+    <t>5.rowCountWithSameNameVerification</t>
+  </si>
+  <si>
+    <t>expectedNumber</t>
+  </si>
+  <si>
+    <t>6.navigateToNextPageOnClickingNextOptionVerification</t>
+  </si>
+  <si>
+    <t>ReparationPage</t>
+  </si>
+  <si>
+    <t>rowNumberInShowButtonVerification</t>
   </si>
 </sst>
 </file>
@@ -186,12 +276,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,27 +290,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -229,12 +301,103 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -243,15 +406,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,104 +457,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -372,6 +467,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -384,175 +485,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,13 +661,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,24 +724,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -649,181 +739,203 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,20 +1255,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="14.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="41.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="24.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="41.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1166,37 +1279,81 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
+      <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="5" spans="3:4">
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1209,78 +1366,86 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="37.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3">
         <v>12345</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
+      <c r="C7" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1295,71 +1460,102 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="25.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="19.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="30.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="26.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
+      <c r="D5" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="2:4">
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="amalu123@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId1" display="amalu123@gmail.com" tooltip="mailto:amalu123@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1369,126 +1565,273 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A2:D29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="41.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="40.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2"/>
+      <c r="D13" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2"/>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" ht="28.8" spans="2:4">
+      <c r="B20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="7"/>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" ht="43.2" spans="1:4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="7"/>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="2:4">
+      <c r="B29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B24:B25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="24.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="31.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="16.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2">
-        <v>108</v>
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceApp/src/main/java/Resources/TestData.xlsx
+++ b/ServiceApp/src/main/java/Resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9215" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
   <si>
     <t xml:space="preserve">LoginAccountPage </t>
   </si>
@@ -65,6 +65,18 @@
     <t>Back to home page</t>
   </si>
   <si>
+    <t>loginWithWrongUserName</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>admin@admin</t>
+  </si>
+  <si>
+    <t>expectedUrl</t>
+  </si>
+  <si>
     <t>forgotPasswordVerification</t>
   </si>
   <si>
@@ -77,6 +89,12 @@
     <t>vyshnavyprakash1805@gmail.com</t>
   </si>
   <si>
+    <t>backToLoginVerification</t>
+  </si>
+  <si>
+    <t>https://qalegend.com/mobile_service//panel/login</t>
+  </si>
+  <si>
     <t>logoutVerification</t>
   </si>
   <si>
@@ -113,7 +131,7 @@
     <t>Good Morning</t>
   </si>
   <si>
-    <t>This value is required</t>
+    <t>This value is required.</t>
   </si>
   <si>
     <t>navigateToQualityAlertVerification</t>
@@ -122,6 +140,30 @@
     <t>Ip013 Iphone 13 1.0000 2.0000</t>
   </si>
   <si>
+    <t>navigateToInventoryPageVerification</t>
+  </si>
+  <si>
+    <t>expectedPageinventory</t>
+  </si>
+  <si>
+    <t>https://qalegend.com/mobile_service/panel/inventory</t>
+  </si>
+  <si>
+    <t>expectedPageclient</t>
+  </si>
+  <si>
+    <t>https://qalegend.com/mobile_service/panel/customers</t>
+  </si>
+  <si>
+    <t>expectedPagereperation</t>
+  </si>
+  <si>
+    <t>https://qalegend.com/mobile_service/panel/reparation</t>
+  </si>
+  <si>
+    <t>quickSMSFieldWithoutMsg</t>
+  </si>
+  <si>
     <t>Client Page</t>
   </si>
   <si>
@@ -155,6 +197,9 @@
     <t>Client: Amalu</t>
   </si>
   <si>
+    <t>vyshnavy3</t>
+  </si>
+  <si>
     <t>3.clientShowButtonVerification</t>
   </si>
   <si>
@@ -167,7 +212,10 @@
     <t>4.navigateToNextPageOnClickingNextOptionVerification</t>
   </si>
   <si>
-    <t>actualMsg</t>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>5. addingClientDetailsWithoutClientName</t>
   </si>
   <si>
     <t>InventoryPage</t>
@@ -218,7 +266,7 @@
     <t>cost</t>
   </si>
   <si>
-    <t>×\nproduct_added</t>
+    <t>expectedPage</t>
   </si>
   <si>
     <t>2. delectInventoryVerification</t>
@@ -243,9 +291,6 @@
     <t>showButtonNum</t>
   </si>
   <si>
-    <t>pageNum</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.UserIsAbleToEditInventoryProductVerification
 </t>
   </si>
@@ -256,19 +301,62 @@
     <t>attributeValue</t>
   </si>
   <si>
+    <t>expectedAlertMsg</t>
+  </si>
+  <si>
+    <t>Product successfully updated</t>
+  </si>
+  <si>
     <t>5.rowCountWithSameNameVerification</t>
   </si>
   <si>
     <t>expectedNumber</t>
   </si>
   <si>
+    <t>searchName</t>
+  </si>
+  <si>
+    <t>LankyBox</t>
+  </si>
+  <si>
     <t>6.navigateToNextPageOnClickingNextOptionVerification</t>
   </si>
   <si>
+    <t>7.exportFileWithoutSelectingProduct</t>
+  </si>
+  <si>
+    <t>×
+No product selected. Please select at least one product.</t>
+  </si>
+  <si>
     <t>ReparationPage</t>
   </si>
   <si>
-    <t>rowNumberInShowButtonVerification</t>
+    <t>1. rowNumberInShowButtonVerification</t>
+  </si>
+  <si>
+    <t>2. columnNumberVerification</t>
+  </si>
+  <si>
+    <t>expectedCount</t>
+  </si>
+  <si>
+    <t>3.columnVisibilityVerification</t>
+  </si>
+  <si>
+    <t>textContent</t>
+  </si>
+  <si>
+    <t>4. rowCountWithSameNameVerification</t>
+  </si>
+  <si>
+    <t>paru</t>
+  </si>
+  <si>
+    <t>5.totalCompletedRepairRows</t>
+  </si>
+  <si>
+    <t>rowNumberInShowButtonVerificationForPendingRepairs</t>
   </si>
 </sst>
 </file>
@@ -276,8 +364,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -288,17 +376,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -309,6 +386,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -330,6 +418,119 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -339,124 +540,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -467,12 +555,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -485,7 +651,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,151 +693,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,65 +749,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,34 +778,86 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,31 +867,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,113 +900,114 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -926,13 +1015,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1255,10 +1346,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1266,7 +1357,7 @@
     <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="24.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="41.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="44.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1287,7 +1378,7 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1295,7 +1386,7 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1303,7 +1394,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1322,7 +1413,7 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1331,32 +1422,76 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
         <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="14" spans="3:4">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" display="admin@admin"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -1366,91 +1501,139 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="37.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="28.6666666666667" customWidth="1"/>
+    <col min="2" max="3" width="37.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="45.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3">
+    <row r="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1">
         <v>12345</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
+    <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
+      <c r="D20" s="2">
+        <v>9061745171</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
+      <c r="D21" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="vyshanvyprakash1805@gmail.com"/>
+    <hyperlink ref="D7" r:id="rId1" display="vyshanvyprakash1805@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1460,59 +1643,59 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="30.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="35.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="13.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="26.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -1520,37 +1703,61 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="3">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="3">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="2:4">
-      <c r="B11" s="6" t="s">
-        <v>48</v>
+      <c r="B11" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>49</v>
+      <c r="D14" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1565,10 +1772,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D29"/>
+  <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1576,220 +1783,245 @@
     <col min="1" max="1" width="14.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="41.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="40.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="4" max="4" width="54.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="3">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="3">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="3">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="3">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1">
         <v>345</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="3">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="3">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1">
         <v>126</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
+        <v>82</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="2"/>
-      <c r="D13" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="2" t="s">
-        <v>67</v>
+      <c r="B15" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="3">
+        <v>86</v>
+      </c>
+      <c r="D16" s="1">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="2"/>
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>71</v>
+      <c r="D17" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="2"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" ht="28.8" spans="2:4">
-      <c r="B20" s="7" t="s">
-        <v>72</v>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="3">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="7"/>
+      <c r="B21" s="8"/>
       <c r="C21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="3">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" ht="43.2" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7" t="s">
-        <v>75</v>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="9">
+        <v>92</v>
+      </c>
+      <c r="D25" s="10">
         <v>123</v>
       </c>
     </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="2" t="s">
-        <v>78</v>
+      <c r="B27" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1">
         <v>9</v>
       </c>
     </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="29" ht="28.8" spans="2:4">
-      <c r="B29" s="10" t="s">
-        <v>80</v>
+      <c r="B29" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="24" spans="2:4">
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1799,6 +2031,9 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B24:B25"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" display="https://qalegend.com/mobile_service/panel/inventory"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1807,30 +2042,117 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="31.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="47.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="16.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="2">
         <v>10</v>
       </c>
     </row>

--- a/ServiceApp/src/main/java/Resources/TestData.xlsx
+++ b/ServiceApp/src/main/java/Resources/TestData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
   <si>
     <t xml:space="preserve">LoginAccountPage </t>
   </si>
@@ -364,10 +364,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -418,8 +418,121 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,119 +545,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -555,19 +555,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,25 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,133 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,35 +751,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,23 +822,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,147 +864,138 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1378,7 +1375,7 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1386,7 +1383,7 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1394,7 +1391,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1413,7 +1410,7 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1424,7 +1421,7 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1432,7 +1429,7 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1470,12 +1467,12 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
@@ -1484,7 +1481,7 @@
       <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1515,17 +1512,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="1">
@@ -1549,7 +1546,7 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1573,7 +1570,7 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1619,7 +1616,7 @@
       <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>9061745171</v>
       </c>
     </row>
@@ -1627,7 +1624,7 @@
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1694,7 +1691,7 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1731,7 +1728,7 @@
       </c>
     </row>
     <row r="11" ht="28.8" spans="2:4">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C11" t="s">
@@ -1756,7 +1753,7 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1790,7 +1787,7 @@
       <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="s">
@@ -1801,7 +1798,7 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>70</v>
       </c>
@@ -1810,7 +1807,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
       <c r="C4" t="s">
         <v>72</v>
       </c>
@@ -1819,7 +1816,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>73</v>
       </c>
@@ -1828,7 +1825,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>74</v>
       </c>
@@ -1837,7 +1834,7 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -1846,7 +1843,7 @@
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
       <c r="C8" t="s">
         <v>76</v>
       </c>
@@ -1855,7 +1852,7 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
       <c r="C9" t="s">
         <v>77</v>
       </c>
@@ -1864,7 +1861,7 @@
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
       <c r="C10" t="s">
         <v>79</v>
       </c>
@@ -1873,7 +1870,7 @@
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
       <c r="C11" t="s">
         <v>81</v>
       </c>
@@ -1882,20 +1879,20 @@
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
       <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="3"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C15" t="s">
@@ -1906,7 +1903,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
       <c r="C16" t="s">
         <v>86</v>
       </c>
@@ -1915,23 +1912,23 @@
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="3"/>
+      <c r="B17" s="2"/>
       <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C20" t="s">
@@ -1942,7 +1939,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="8"/>
+      <c r="B21" s="7"/>
       <c r="C21" t="s">
         <v>64</v>
       </c>
@@ -1951,12 +1948,12 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C24" t="s">
@@ -1967,11 +1964,11 @@
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
       <c r="C25" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>123</v>
       </c>
     </row>
@@ -1984,7 +1981,7 @@
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C27" t="s">
@@ -2003,7 +2000,7 @@
       </c>
     </row>
     <row r="29" ht="28.8" spans="2:4">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C29" t="s">
@@ -2020,7 +2017,7 @@
       <c r="C31" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2066,7 +2063,15 @@
         <v>96</v>
       </c>
       <c r="D1" s="1">
-        <v>38</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -2077,7 +2082,7 @@
         <v>105</v>
       </c>
       <c r="D3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2144,7 +2149,7 @@
       <c r="C14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2152,7 +2157,7 @@
       <c r="C15" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>10</v>
       </c>
     </row>
